--- a/console/Networking/iaas-network/pipMixinsXlsx/components/pip_detailTab.xlsx
+++ b/console/Networking/iaas-network/pipMixinsXlsx/components/pip_detailTab.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GTCOM\JD\!!Workspace\1811-14_HB\console-EN_Output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -456,18 +461,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>IP provider</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Bandwidth Cap</t>
     </r>
   </si>
@@ -626,13 +619,17 @@
       </rPr>
       <t>'Container'</t>
     </r>
+  </si>
+  <si>
+    <t>ISP Line</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -645,6 +642,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -668,11 +672,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1012,17 +1017,17 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1044,18 +1049,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1063,10 +1068,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1074,10 +1079,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1085,10 +1090,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1096,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1107,10 +1112,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1118,10 +1123,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1129,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1140,10 +1145,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1151,10 +1156,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1162,10 +1167,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1173,10 +1178,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1184,10 +1189,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1195,10 +1200,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1206,12 +1211,13 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
     <ignoredError sqref="A1:B17" numberStoredAsText="1"/>
   </ignoredErrors>
